--- a/wab2018/wab2018/Templates/Zestawienie_.xlsx
+++ b/wab2018/wab2018/Templates/Zestawienie_.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Tytuł</t>
   </si>
@@ -61,9 +61,6 @@
     <t/>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
     <t>dsda</t>
   </si>
   <si>
@@ -76,18 +73,26 @@
     <t>07.02.2019</t>
   </si>
   <si>
-    <t>111 222 333</t>
+    <t>geodezja</t>
   </si>
   <si>
     <t>dsad</t>
   </si>
   <si>
+    <t xml:space="preserve">badania daktyloskopijne
+geodezja</t>
+  </si>
+  <si>
     <t>cx</t>
   </si>
   <si>
     <t>vxz</t>
   </si>
   <si>
+    <t xml:space="preserve">badania techniczne automatów i urządzeń do gier
+geodezja</t>
+  </si>
+  <si>
     <t>cxcv</t>
   </si>
   <si>
@@ -112,6 +117,9 @@
     <t>17.11.2019</t>
   </si>
   <si>
+    <t>aaaa</t>
+  </si>
+  <si>
     <t>asw</t>
   </si>
   <si>
@@ -172,19 +180,20 @@
     <t>cvcg</t>
   </si>
   <si>
+    <t>vcx8</t>
+  </si>
+  <si>
+    <t>cvch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aaaa
+geodezja</t>
+  </si>
+  <si>
     <t>vcx9</t>
   </si>
   <si>
     <t>cvcj</t>
-  </si>
-  <si>
-    <t>Wazny</t>
-  </si>
-  <si>
-    <t>Testownik</t>
-  </si>
-  <si>
-    <t>111-222-333</t>
   </si>
   <si>
     <t>werewe</t>
@@ -450,10 +459,10 @@
         <v>11</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>12</v>
@@ -464,59 +473,59 @@
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="D3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>20</v>
@@ -525,10 +534,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
@@ -537,24 +546,24 @@
         <v>12</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>12</v>
@@ -563,21 +572,21 @@
         <v>12</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>4</v>
@@ -589,24 +598,24 @@
         <v>12</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
@@ -615,24 +624,24 @@
         <v>12</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="E9" s="7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
@@ -646,19 +655,19 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
@@ -667,24 +676,24 @@
         <v>12</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
@@ -693,24 +702,24 @@
         <v>12</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>12</v>
@@ -719,24 +728,24 @@
         <v>12</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
@@ -745,24 +754,24 @@
         <v>12</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
@@ -771,24 +780,24 @@
         <v>12</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>12</v>
@@ -797,24 +806,24 @@
         <v>12</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
@@ -823,24 +832,24 @@
         <v>12</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
@@ -849,24 +858,24 @@
         <v>12</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>12</v>
@@ -875,21 +884,21 @@
         <v>12</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>4</v>
@@ -901,50 +910,50 @@
         <v>12</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>12</v>
@@ -958,19 +967,19 @@
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
@@ -979,24 +988,24 @@
         <v>12</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>12</v>
@@ -1005,7 +1014,7 @@
         <v>12</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
